--- a/biology/Botanique/Tecoma/Tecoma.xlsx
+++ b/biology/Botanique/Tecoma/Tecoma.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F3"/>
+  <dimension ref="A1:H4"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -480,7 +490,9 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
         <is>
           <t xml:space="preserve">Tecoma est un genre de 14 espèces d'arbustes ou de petits arbres de la famille des Bignoniaceae. 
 Douze espèces sont originaires d'Amérique, tandis que les deux autres espèces sont africaines. Les espèces américaines poussent de l'extrême sud des États-Unis par l'Amérique centrale et du sud des Antilles à travers les Andes au nord de l'Argentine. Le nom générique est dérivé du mot nahuatl tecomaxochitl, nom donné par les peuples indigènes du Mexique aux plantes à fleurs tubulaires.
@@ -514,12 +526,51 @@
       </c>
       <c r="F3" t="inlineStr">
         <is>
-          <t>Selon ITIS
-Tecoma capensis (Thunb.) Lindl.
+          <t>Selon ITIS</t>
+        </is>
+      </c>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr">
+        <is>
+          <t>Tecoma capensis (Thunb.) Lindl.
 Tecoma castanifolia (D. Don) Melchior
-Tecoma stans (L.) Juss. ex Kunth
-Espèces
-Tecoma arequipensis (Sprague) Sandwith
+Tecoma stans (L.) Juss. ex Kunth</t>
+        </is>
+      </c>
+    </row>
+    <row r="4">
+      <c r="A4" s="1" t="n">
+        <v>2</v>
+      </c>
+      <c r="B4" t="inlineStr">
+        <is>
+          <t>Tecoma</t>
+        </is>
+      </c>
+      <c r="C4" t="inlineStr">
+        <is>
+          <t>Portail:Botanique/Articles liés</t>
+        </is>
+      </c>
+      <c r="D4" t="inlineStr">
+        <is>
+          <t>https://fr.wikipedia.org/wiki/Tecoma</t>
+        </is>
+      </c>
+      <c r="E4" t="inlineStr">
+        <is>
+          <t>Espèces</t>
+        </is>
+      </c>
+      <c r="F4" t="inlineStr">
+        <is>
+          <t>Espèces</t>
+        </is>
+      </c>
+      <c r="G4" t="inlineStr"/>
+      <c r="H4" t="inlineStr">
+        <is>
+          <t>Tecoma arequipensis (Sprague) Sandwith
 Tecoma capensis (Thunb.) Lindl. – (Afrique du Sud)
 Tecoma castanifolia (D.Don) Melchior
 Tecoma cochabambensis (Herzog) Sandwith
@@ -532,7 +583,7 @@
 Tecoma stans (L.) Juss. ex Humboldt, Bonpland &amp; Kunth – (Amérique)
 Tecoma tanaeciiflora (Kränzlin) Sandwith
 Tecoma tenuiflora (DC.) Fabris
-Tecoma weberbaueriana (Kränzlin) Melchior[2]</t>
+Tecoma weberbaueriana (Kränzlin) Melchior</t>
         </is>
       </c>
     </row>
